--- a/myapp/files/9_MethodComparePercent/Scenario 349.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 349.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2473</v>
+        <v>10403</v>
       </c>
       <c r="F2" t="n">
-        <v>1.90064097637456</v>
+        <v>1.88266080797149</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8961038961039</v>
+        <v>2.57352941176471</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2841</v>
+        <v>19544</v>
       </c>
       <c r="F3" t="n">
-        <v>2.18346988025885</v>
+        <v>3.53693384898538</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5974025974026</v>
+        <v>3.67647058823529</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1944</v>
+        <v>21304</v>
       </c>
       <c r="F4" t="n">
-        <v>1.4940744270409</v>
+        <v>3.85544610718299</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -669,10 +669,10 @@
         <v>2.66666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2987012987013</v>
+        <v>3.30882352941176</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>1944</v>
+        <v>16391</v>
       </c>
       <c r="F5" t="n">
-        <v>1.4940744270409</v>
+        <v>2.9663263773393</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2987012987013</v>
+        <v>2.57352941176471</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>2184</v>
+        <v>8086</v>
       </c>
       <c r="F6" t="n">
-        <v>1.67852806000892</v>
+        <v>1.46334665896929</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5974025974026</v>
+        <v>1.47058823529412</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4313</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.780536005458142</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.47058823529412</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1250</v>
+        <v>18728</v>
       </c>
       <c r="F8" t="n">
-        <v>0.960696005041733</v>
+        <v>3.38925998382102</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2987012987013</v>
+        <v>4.04411764705882</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>8192</v>
+        <v>35536</v>
       </c>
       <c r="F9" t="n">
-        <v>6.2960173386415</v>
+        <v>6.43105204960828</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -859,16 +859,16 @@
         <v>5.33333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>7.79220779220779</v>
+        <v>8.08823529411765</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>12</v>
+        <v>13.3333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>6618</v>
+        <v>37838</v>
       </c>
       <c r="F10" t="n">
-        <v>5.08630892909295</v>
+        <v>6.84765160550085</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,16 +897,16 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
-        <v>9.09090909090909</v>
+        <v>7.35294117647059</v>
       </c>
       <c r="K10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" t="n">
         <v>8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>10.6666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>294</v>
+        <v>16651</v>
       </c>
       <c r="F11" t="n">
-        <v>0.225955700385815</v>
+        <v>3.01337932457304</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5974025974026</v>
+        <v>2.94117647058824</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>5496</v>
+        <v>9367</v>
       </c>
       <c r="F12" t="n">
-        <v>4.22398819496749</v>
+        <v>1.69517291053244</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8961038961039</v>
+        <v>1.83823529411765</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>17130</v>
+        <v>39482</v>
       </c>
       <c r="F13" t="n">
-        <v>13.1653780530919</v>
+        <v>7.14517101031726</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
@@ -1011,10 +1011,10 @@
         <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J13" t="n">
-        <v>10.3896103896104</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K13" t="n">
         <v>6</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>23788</v>
+        <v>68586</v>
       </c>
       <c r="F14" t="n">
-        <v>18.2824292543462</v>
+        <v>12.4122055345124</v>
       </c>
       <c r="G14" t="n">
         <v>21</v>
@@ -1049,10 +1049,10 @@
         <v>28</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>12.987012987013</v>
+        <v>9.55882352941176</v>
       </c>
       <c r="K14" t="n">
         <v>10</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>13716</v>
+        <v>50276</v>
       </c>
       <c r="F15" t="n">
-        <v>10.5415251241219</v>
+        <v>9.09859221201334</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1087,10 +1087,10 @@
         <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J15" t="n">
-        <v>10.3896103896104</v>
+        <v>9.19117647058824</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>10692</v>
+        <v>34117</v>
       </c>
       <c r="F16" t="n">
-        <v>8.21740934872496</v>
+        <v>6.17425154143645</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
-        <v>6.49350649350649</v>
+        <v>5.14705882352941</v>
       </c>
       <c r="K16" t="n">
         <v>6</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2729</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.493874973080285</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.10294117647059</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>16392</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.96650735021328</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.94117647058824</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>390</v>
+        <v>36835</v>
       </c>
       <c r="F19" t="n">
-        <v>0.299737153573021</v>
+        <v>6.666135812903</v>
       </c>
       <c r="G19" t="n">
         <v>17</v>
@@ -1239,10 +1239,10 @@
         <v>22.6666666666667</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>1.2987012987013</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1935</v>
+        <v>28904</v>
       </c>
       <c r="F20" t="n">
-        <v>1.4871574158046</v>
+        <v>5.23083994939998</v>
       </c>
       <c r="G20" t="n">
         <v>11</v>
@@ -1277,10 +1277,10 @@
         <v>14.6666666666667</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J20" t="n">
-        <v>2.5974025974026</v>
+        <v>6.98529411764706</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>11867</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.14760509547224</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.20588235294118</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>384</v>
+        <v>3134</v>
       </c>
       <c r="F22" t="n">
-        <v>0.29512581274882</v>
+        <v>0.567168987040532</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.2987012987013</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>3888</v>
+        <v>8343</v>
       </c>
       <c r="F23" t="n">
-        <v>2.98814885408181</v>
+        <v>1.5098566875811</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.2987012987013</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>7165</v>
+        <v>21726</v>
       </c>
       <c r="F24" t="n">
-        <v>5.50670950089921</v>
+        <v>3.93181666000083</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8961038961039</v>
+        <v>3.30882352941176</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>11148</v>
+        <v>22385</v>
       </c>
       <c r="F25" t="n">
-        <v>8.56787125136419</v>
+        <v>4.05107778395096</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
-        <v>7.79220779220779</v>
+        <v>4.77941176470588</v>
       </c>
       <c r="K25" t="n">
         <v>6</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>6642</v>
+        <v>9632</v>
       </c>
       <c r="F26" t="n">
-        <v>5.10475429238975</v>
+        <v>1.74313072213606</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>5.19480519480519</v>
+        <v>2.20588235294118</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
